--- a/biology/Zoologie/Dugesia_japonica/Dugesia_japonica.xlsx
+++ b/biology/Zoologie/Dugesia_japonica/Dugesia_japonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dugesia japonica est une espèce de vers plats d'eau douce du genre  Dugesia et de la famille des Dugesiidae, présente en Asie de l'Est. Cette espèce est capable de régénération. Lorsqu'elle est coupée en deux, chacune des deux parties reforme un individu[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dugesia japonica est une espèce de vers plats d'eau douce du genre  Dugesia et de la famille des Dugesiidae, présente en Asie de l'Est. Cette espèce est capable de régénération. Lorsqu'elle est coupée en deux, chacune des deux parties reforme un individu.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce petit ver mesure entre 0,2 et 1 cm. Il a une tête légèrement triangulaire. Ayant normalement deux yeux, il présente parfois des yeux surnuméraires[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce petit ver mesure entre 0,2 et 1 cm. Il a une tête légèrement triangulaire. Ayant normalement deux yeux, il présente parfois des yeux surnuméraires.
 </t>
         </is>
       </c>
@@ -544,10 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habitat
-Il habite les plans d'eau douce, mais il supporte les eaux saumâtres[1].
-Répartition
-On le trouve notamment au Japon, en Corée, en Chine et au nord-est de la Sibérie.
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il habite les plans d'eau douce, mais il supporte les eaux saumâtres.
 </t>
         </is>
       </c>
@@ -573,20 +590,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Systématique</t>
+          <t>Habitat et répartition</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Dugesia japonica Ichikawa &amp; Kawakatsu, 1964[3].
-Synonyme
-Dugesia japonica a pour synonyme la sous-espèce Dugesia japonica japonica Ichikawa &amp; Kawakatsu, 1964[3].
-Phylogénie
-Le diagramme suivant indique la position relative de Dugesia japonica par rapport aux autres espèces de Dugesia d'après le travail de Lázaro et al., 2009[4] :
-Sous-espèces
-Selon la base de données World Register of Marine Species                               (13 janvier 2024)[3], Dugesia japonica a seulement deux sous-espèces invalides :
-Dugesia japonica japonica Ichikawa &amp; Kawakatsu, 1964, qui est l'espèce Dugesia japonica Ichikawa &amp; Kawakatsu, 1964 ;
-Dugesia japonica ryukyuensis Kawakatsu, 1976, qui est l'espèce Dugesia ryukyuensis Kawakatsu, 1976.</t>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve notamment au Japon, en Corée, en Chine et au nord-est de la Sibérie.
+</t>
         </is>
       </c>
     </row>
@@ -611,13 +627,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Dugesia japonica Ichikawa &amp; Kawakatsu, 1964.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dugesia_japonica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dugesia_japonica</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dugesia japonica a pour synonyme la sous-espèce Dugesia japonica japonica Ichikawa &amp; Kawakatsu, 1964.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dugesia_japonica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dugesia_japonica</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagramme suivant indique la position relative de Dugesia japonica par rapport aux autres espèces de Dugesia d'après le travail de Lázaro et al., 2009 :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dugesia_japonica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dugesia_japonica</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (13 janvier 2024), Dugesia japonica a seulement deux sous-espèces invalides :
+Dugesia japonica japonica Ichikawa &amp; Kawakatsu, 1964, qui est l'espèce Dugesia japonica Ichikawa &amp; Kawakatsu, 1964 ;
+Dugesia japonica ryukyuensis Kawakatsu, 1976, qui est l'espèce Dugesia ryukyuensis Kawakatsu, 1976.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dugesia_japonica</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dugesia_japonica</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce ver constitue une piste de recherche dans la lutte contre certaines bactéries[5],[6],[7],[8].
-Une étude a été publiée en 2017 dans laquelle un fragment de tronc de Dugesia Japonica avait été envoyé dans l'espace et poussait avec deux têtes, une à chaque extrémité du tronc[9]. Cependant l'influence des conditions spatiales sur ce phénomène est débattue[10].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce ver constitue une piste de recherche dans la lutte contre certaines bactéries.
+Une étude a été publiée en 2017 dans laquelle un fragment de tronc de Dugesia Japonica avait été envoyé dans l'espace et poussait avec deux têtes, une à chaque extrémité du tronc. Cependant l'influence des conditions spatiales sur ce phénomène est débattue.
 </t>
         </is>
       </c>
